--- a/downloads/exportExcelInternalJObNormal.xlsx
+++ b/downloads/exportExcelInternalJObNormal.xlsx
@@ -85,7 +85,7 @@
     <t>In progressDX</t>
   </si>
   <si>
-    <t>J-655</t>
+    <t>J-668</t>
   </si>
   <si>
     <t>Installation4</t>
@@ -112,22 +112,22 @@
     <t>21/02/2026</t>
   </si>
   <si>
-    <t>J-654</t>
+    <t>J-667</t>
   </si>
   <si>
     <t>Installation3</t>
   </si>
   <si>
-    <t>J-653</t>
-  </si>
-  <si>
-    <t>J-652</t>
+    <t>J-666</t>
+  </si>
+  <si>
+    <t>J-665</t>
   </si>
   <si>
     <t>9863574112</t>
   </si>
   <si>
-    <t>J-651</t>
+    <t>J-664</t>
   </si>
   <si>
     <t>Installation5</t>
